--- a/branches/master/StructureDefinition-veterinarian.xlsx
+++ b/branches/master/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T16:17:08+00:00</t>
+    <t>2022-02-25T16:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
